--- a/Documents/4. 요구분석/1. 기능적 요구사항 정의/B조 기능적 요구사항 정의_V1.1.xlsx
+++ b/Documents/4. 요구분석/1. 기능적 요구사항 정의/B조 기능적 요구사항 정의_V1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\4. 요구분석\1. 기능적 요구사항 정의\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E40F21-BBEF-4886-B8DF-F45181AC3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B33AF10-AB29-49B3-A1E7-D4152AA6A9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="420" windowWidth="25170" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="345" windowWidth="21705" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능적 요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-비밀번호 재설정 링크를 이메일로 보내준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,10 +381,6 @@
   </si>
   <si>
     <t>아이디 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-이메일로 아이디를 전송한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,6 +470,16 @@
     <t>-사원이 퇴사한 경우 관리자가 사원의 계정을 탈퇴 시킨다.
 -탈퇴한 사원이 남긴글, 댓글등은 삭제되지 않고, 사원 정보도 삭제는 되지 않는다 (단, 탈퇴한 계정으로 표시해서 블로그 확인이 가능해야 한다)
 -재입사(재가입)시에는 기존에 사용하던 계정을 복구한다. (회원정보 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-이메일로 아이디를 전송한다.
+-회원의 이메일을 입력해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-비밀번호 재설정 링크를 이메일로 보내준다.
+-회원의 아이디를 입력해야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +681,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -987,7 +992,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -1002,34 +1007,34 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>51</v>
+      <c r="B3" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="F3" s="7">
         <v>45349</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>12</v>
@@ -1037,53 +1042,53 @@
     </row>
     <row r="4" spans="2:11" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7">
         <v>45350</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="2:11" ht="66" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="F5" s="7">
         <v>45349</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>11</v>
@@ -1092,48 +1097,48 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7">
         <v>45349</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7">
         <v>45349</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>14</v>
@@ -1142,14 +1147,14 @@
         <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7">
         <v>45349</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="5"/>
@@ -1157,7 +1162,7 @@
     </row>
     <row r="9" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>15</v>
@@ -1173,31 +1178,31 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="7">
+        <v>45349</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="7">
-        <v>45349</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>12</v>
@@ -1205,75 +1210,75 @@
     </row>
     <row r="11" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7">
         <v>45349</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F12" s="7">
         <v>45349</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7">
         <v>45349</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>24</v>
@@ -1282,42 +1287,42 @@
         <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7">
         <v>45349</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7">
         <v>45349</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I15" s="20"/>
     </row>
     <row r="16" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>26</v>
@@ -1326,22 +1331,22 @@
         <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7">
         <v>45349</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>27</v>
@@ -1350,20 +1355,20 @@
         <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7">
         <v>45349</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>28</v>
@@ -1372,20 +1377,20 @@
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7">
         <v>45349</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>29</v>
@@ -1401,61 +1406,61 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7">
         <v>45349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="7">
         <v>45349</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>32</v>
@@ -1464,14 +1469,14 @@
         <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7">
         <v>45349</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>22</v>
@@ -1479,7 +1484,7 @@
     </row>
     <row r="23" spans="2:9" ht="99" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>33</v>
@@ -1488,20 +1493,20 @@
         <v>36</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="7">
         <v>45349</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>34</v>
@@ -1510,20 +1515,20 @@
         <v>37</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24" s="7">
         <v>45350</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I24" s="22"/>
     </row>
     <row r="25" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>35</v>
@@ -1532,20 +1537,20 @@
         <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7">
         <v>45350</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>42</v>
@@ -1554,22 +1559,22 @@
         <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7">
         <v>45349</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>43</v>
@@ -1578,14 +1583,14 @@
         <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="7">
         <v>45349</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>40</v>
@@ -1593,10 +1598,10 @@
     </row>
     <row r="28" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>41</v>
@@ -1609,7 +1614,7 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I28" s="20"/>
     </row>
